--- a/form_responses.xlsx
+++ b/form_responses.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Timestamp</t>
   </si>
@@ -98,6 +98,33 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1b865zBX4AoFnkg5fXOhkzdo8xBmk6Eyu</t>
+  </si>
+  <si>
+    <t>upadhyaypriyanshu86@gmail.com</t>
+  </si>
+  <si>
+    <t>Priyanshu Upadhyay</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=16e_A4hb4_GE7TS-UJ9D24u6l8LFFFQrF</t>
+  </si>
+  <si>
+    <t>kumararadhya49@gmail.com</t>
+  </si>
+  <si>
+    <t>Aradhya</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17fduyglPw8v4FyKowueXeEWEW4V3h_kJ</t>
+  </si>
+  <si>
+    <t>harshsharma17.826@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harsh Sharma </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1oVhm8jMjtjE7UqE_h7oIq8B0FRY1MwDN</t>
   </si>
 </sst>
 </file>
@@ -286,38 +313,38 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -449,7 +476,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G7" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G10" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Email Address" id="2"/>
@@ -814,25 +841,94 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17">
+      <c r="A7" s="8">
         <v>45925.75735321759</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="9">
         <v>58863.0</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="11">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12">
+        <v>45926.746209606485</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="13">
+        <v>58888.0</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>45926.7655121875</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="9">
+        <v>58900.0</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17">
+        <v>45928.420500844906</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="18">
+        <v>59241.0</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="20">
         <v>2022.0</v>
       </c>
     </row>
@@ -844,10 +940,13 @@
     <hyperlink r:id="rId4" ref="F5"/>
     <hyperlink r:id="rId5" ref="F6"/>
     <hyperlink r:id="rId6" ref="F7"/>
+    <hyperlink r:id="rId7" ref="F8"/>
+    <hyperlink r:id="rId8" ref="F9"/>
+    <hyperlink r:id="rId9" ref="F10"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>